--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilwe\OneDrive\Bureau\MTU_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEB843F-43A3-4A92-8BAB-B92E0DD02512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="396" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -109,11 +103,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,7 +118,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,21 +164,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -469,16 +458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -578,7 +565,7 @@
         <v>32.76</v>
       </c>
       <c r="E2">
-        <v>32.229999999999997</v>
+        <v>32.23</v>
       </c>
       <c r="F2">
         <v>38</v>
@@ -596,10 +583,10 @@
         <v>44.02</v>
       </c>
       <c r="K2">
-        <v>33.590000000000003</v>
+        <v>33.59</v>
       </c>
       <c r="L2">
-        <v>36.090000000000003</v>
+        <v>36.09</v>
       </c>
       <c r="M2">
         <v>34.54</v>
@@ -641,7 +628,7 @@
         <v>31.23</v>
       </c>
       <c r="Z2">
-        <v>32.020000000000003</v>
+        <v>32.02</v>
       </c>
       <c r="AA2">
         <v>44.17</v>
@@ -653,7 +640,7 @@
         <v>49.25</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -673,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="G3">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="H3">
         <v>33.32</v>
@@ -685,7 +672,7 @@
         <v>44.51</v>
       </c>
       <c r="K3">
-        <v>33.880000000000003</v>
+        <v>33.88</v>
       </c>
       <c r="L3">
         <v>36.32</v>
@@ -694,7 +681,7 @@
         <v>34.35</v>
       </c>
       <c r="N3">
-        <v>39.520000000000003</v>
+        <v>39.52</v>
       </c>
       <c r="O3">
         <v>56.23</v>
@@ -715,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="U3">
-        <v>37.520000000000003</v>
+        <v>37.52</v>
       </c>
       <c r="V3">
         <v>31.17</v>
@@ -736,13 +723,13 @@
         <v>47.97</v>
       </c>
       <c r="AB3">
-        <v>39.049999999999997</v>
+        <v>39.05</v>
       </c>
       <c r="AC3">
         <v>68.5</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -774,13 +761,13 @@
         <v>44.05</v>
       </c>
       <c r="K4">
-        <v>34.950000000000003</v>
+        <v>34.95</v>
       </c>
       <c r="L4">
         <v>37.08</v>
       </c>
       <c r="M4">
-        <v>36.020000000000003</v>
+        <v>36.02</v>
       </c>
       <c r="N4">
         <v>39.82</v>
@@ -795,7 +782,7 @@
         <v>33.82</v>
       </c>
       <c r="R4">
-        <v>32.979999999999997</v>
+        <v>32.98</v>
       </c>
       <c r="S4">
         <v>52.33</v>
@@ -816,10 +803,10 @@
         <v>29.51</v>
       </c>
       <c r="Y4">
-        <v>33.049999999999997</v>
+        <v>33.05</v>
       </c>
       <c r="Z4">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="AA4">
         <v>48.66</v>
@@ -831,7 +818,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -842,7 +829,7 @@
         <v>40.76</v>
       </c>
       <c r="D5">
-        <v>35.049999999999997</v>
+        <v>35.05</v>
       </c>
       <c r="E5">
         <v>35.06</v>
@@ -881,7 +868,7 @@
         <v>32.57</v>
       </c>
       <c r="Q5">
-        <v>36.450000000000003</v>
+        <v>36.45</v>
       </c>
       <c r="R5">
         <v>34.82</v>
@@ -908,7 +895,7 @@
         <v>34.53</v>
       </c>
       <c r="Z5">
-        <v>34.409999999999997</v>
+        <v>34.41</v>
       </c>
       <c r="AA5">
         <v>49.5</v>
@@ -920,7 +907,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -985,16 +972,16 @@
         <v>41.95</v>
       </c>
       <c r="V6">
-        <v>36.549999999999997</v>
+        <v>36.55</v>
       </c>
       <c r="W6">
         <v>36.46</v>
       </c>
       <c r="X6">
-        <v>32.515000000000001</v>
+        <v>32.515</v>
       </c>
       <c r="Y6">
-        <v>35.229999999999997</v>
+        <v>35.23</v>
       </c>
       <c r="Z6">
         <v>35.03</v>
@@ -1009,7 +996,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1044,13 +1031,13 @@
         <v>38.25</v>
       </c>
       <c r="L7">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="M7">
         <v>37.76</v>
       </c>
       <c r="N7">
-        <v>40.090000000000003</v>
+        <v>40.09</v>
       </c>
       <c r="O7">
         <v>58.32</v>
@@ -1059,10 +1046,10 @@
         <v>33.6</v>
       </c>
       <c r="Q7">
-        <v>36.270000000000003</v>
+        <v>36.27</v>
       </c>
       <c r="R7">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="S7">
         <v>49.66</v>
@@ -1083,10 +1070,10 @@
         <v>33.78</v>
       </c>
       <c r="Y7">
-        <v>36.119999999999997</v>
+        <v>36.12</v>
       </c>
       <c r="Z7">
-        <v>35.549999999999997</v>
+        <v>35.55</v>
       </c>
       <c r="AA7">
         <v>48.57</v>
@@ -1098,7 +1085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1121,7 +1108,7 @@
         <v>41.26</v>
       </c>
       <c r="H8">
-        <v>39.520000000000003</v>
+        <v>39.52</v>
       </c>
       <c r="I8">
         <v>42.34</v>
@@ -1130,10 +1117,10 @@
         <v>45.24</v>
       </c>
       <c r="K8">
-        <v>38.159999999999997</v>
+        <v>38.16</v>
       </c>
       <c r="L8">
-        <v>39.130000000000003</v>
+        <v>39.13</v>
       </c>
       <c r="M8">
         <v>37.21</v>
@@ -1145,13 +1132,13 @@
         <v>57.78</v>
       </c>
       <c r="P8">
-        <v>34.200000000000003</v>
+        <v>34.2</v>
       </c>
       <c r="Q8">
-        <v>36.450000000000003</v>
+        <v>36.45</v>
       </c>
       <c r="R8">
-        <v>35.729999999999997</v>
+        <v>35.73</v>
       </c>
       <c r="S8">
         <v>46.58</v>
@@ -1163,7 +1150,7 @@
         <v>42.6</v>
       </c>
       <c r="V8">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="W8">
         <v>36.5</v>
@@ -1175,7 +1162,7 @@
         <v>37.22</v>
       </c>
       <c r="Z8">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="AA8">
         <v>45.57</v>
@@ -1187,7 +1174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1195,7 +1182,7 @@
         <v>41671</v>
       </c>
       <c r="C9">
-        <v>40.409999999999997</v>
+        <v>40.41</v>
       </c>
       <c r="D9">
         <v>36.4</v>
@@ -1210,7 +1197,7 @@
         <v>40.94</v>
       </c>
       <c r="H9">
-        <v>40.119999999999997</v>
+        <v>40.12</v>
       </c>
       <c r="I9">
         <v>41.76</v>
@@ -1234,13 +1221,13 @@
         <v>57.58</v>
       </c>
       <c r="P9">
-        <v>34.840000000000003</v>
+        <v>34.84</v>
       </c>
       <c r="Q9">
         <v>37</v>
       </c>
       <c r="R9">
-        <v>35.229999999999997</v>
+        <v>35.23</v>
       </c>
       <c r="S9">
         <v>46.34</v>
@@ -1258,13 +1245,13 @@
         <v>36.5</v>
       </c>
       <c r="X9">
-        <v>32.340000000000003</v>
+        <v>32.34</v>
       </c>
       <c r="Y9">
         <v>37.29</v>
       </c>
       <c r="Z9">
-        <v>35.950000000000003</v>
+        <v>35.95</v>
       </c>
       <c r="AA9">
         <v>45.51</v>
@@ -1276,7 +1263,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1287,7 +1274,7 @@
         <v>40.14</v>
       </c>
       <c r="D10">
-        <v>37.020000000000003</v>
+        <v>37.02</v>
       </c>
       <c r="E10">
         <v>34.64</v>
@@ -1296,7 +1283,7 @@
         <v>43.5</v>
       </c>
       <c r="G10">
-        <v>40.549999999999997</v>
+        <v>40.55</v>
       </c>
       <c r="H10">
         <v>40.33</v>
@@ -1329,7 +1316,7 @@
         <v>36.21</v>
       </c>
       <c r="R10">
-        <v>35.090000000000003</v>
+        <v>35.09</v>
       </c>
       <c r="S10">
         <v>45.78</v>
@@ -1341,10 +1328,10 @@
         <v>42.24</v>
       </c>
       <c r="V10">
-        <v>35.159999999999997</v>
+        <v>35.16</v>
       </c>
       <c r="W10">
-        <v>36.479999999999997</v>
+        <v>36.48</v>
       </c>
       <c r="X10">
         <v>31.44</v>
@@ -1353,7 +1340,7 @@
         <v>36.99</v>
       </c>
       <c r="Z10">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="AA10">
         <v>43.48</v>
@@ -1365,7 +1352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1376,7 +1363,7 @@
         <v>39.06</v>
       </c>
       <c r="D11">
-        <v>35.729999999999997</v>
+        <v>35.73</v>
       </c>
       <c r="E11">
         <v>34.46</v>
@@ -1388,10 +1375,10 @@
         <v>39.72</v>
       </c>
       <c r="H11">
-        <v>39.630000000000003</v>
+        <v>39.63</v>
       </c>
       <c r="I11">
-        <v>38.549999999999997</v>
+        <v>38.55</v>
       </c>
       <c r="J11">
         <v>42.93</v>
@@ -1433,7 +1420,7 @@
         <v>33.83</v>
       </c>
       <c r="W11">
-        <v>37.799999999999997</v>
+        <v>37.8</v>
       </c>
       <c r="X11">
         <v>31.58</v>
@@ -1442,19 +1429,19 @@
         <v>36.56</v>
       </c>
       <c r="Z11">
-        <v>35.049999999999997</v>
+        <v>35.05</v>
       </c>
       <c r="AA11">
         <v>43.56</v>
       </c>
       <c r="AB11">
-        <v>40.479999999999997</v>
+        <v>40.48</v>
       </c>
       <c r="AC11">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1474,7 +1461,7 @@
         <v>41</v>
       </c>
       <c r="G12">
-        <v>38.869999999999997</v>
+        <v>38.87</v>
       </c>
       <c r="H12">
         <v>36.75</v>
@@ -1537,13 +1524,13 @@
         <v>43.35</v>
       </c>
       <c r="AB12">
-        <v>40.369999999999997</v>
+        <v>40.37</v>
       </c>
       <c r="AC12">
         <v>66.5</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1551,13 +1538,13 @@
         <v>41791</v>
       </c>
       <c r="C13">
-        <v>36.409999999999997</v>
+        <v>36.41</v>
       </c>
       <c r="D13">
         <v>34.03</v>
       </c>
       <c r="E13">
-        <v>33.729999999999997</v>
+        <v>33.73</v>
       </c>
       <c r="F13">
         <v>41</v>
@@ -1566,7 +1553,7 @@
         <v>37.97</v>
       </c>
       <c r="H13">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="I13">
         <v>36.9</v>
@@ -1611,7 +1598,7 @@
         <v>32.43</v>
       </c>
       <c r="W13">
-        <v>34.340000000000003</v>
+        <v>34.34</v>
       </c>
       <c r="X13">
         <v>29.15</v>
@@ -1620,19 +1607,19 @@
         <v>34.67</v>
       </c>
       <c r="Z13">
-        <v>33.630000000000003</v>
+        <v>33.63</v>
       </c>
       <c r="AA13">
         <v>44.87</v>
       </c>
       <c r="AB13">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="AC13">
-        <v>74.599999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+        <v>74.59999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1664,7 +1651,7 @@
         <v>42.36</v>
       </c>
       <c r="K14">
-        <v>33.979999999999997</v>
+        <v>33.98</v>
       </c>
       <c r="L14">
         <v>37.29</v>
@@ -1706,7 +1693,7 @@
         <v>28.85</v>
       </c>
       <c r="Y14">
-        <v>34.270000000000003</v>
+        <v>34.27</v>
       </c>
       <c r="Z14">
         <v>33.18</v>
@@ -1721,7 +1708,7 @@
         <v>67.75</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1732,7 +1719,7 @@
         <v>34.36</v>
       </c>
       <c r="D15">
-        <v>33.840000000000003</v>
+        <v>33.84</v>
       </c>
       <c r="E15">
         <v>32.54</v>
@@ -1741,13 +1728,13 @@
         <v>38</v>
       </c>
       <c r="G15">
-        <v>37.090000000000003</v>
+        <v>37.09</v>
       </c>
       <c r="H15">
         <v>29.88</v>
       </c>
       <c r="I15">
-        <v>36.520000000000003</v>
+        <v>36.52</v>
       </c>
       <c r="J15">
         <v>42.31</v>
@@ -1762,7 +1749,7 @@
         <v>33.97</v>
       </c>
       <c r="N15">
-        <v>39.729999999999997</v>
+        <v>39.73</v>
       </c>
       <c r="O15">
         <v>54.89</v>
@@ -1783,7 +1770,7 @@
         <v>39.75</v>
       </c>
       <c r="U15">
-        <v>38.369999999999997</v>
+        <v>38.37</v>
       </c>
       <c r="V15">
         <v>30.18</v>
@@ -1798,7 +1785,7 @@
         <v>33.79</v>
       </c>
       <c r="Z15">
-        <v>32.840000000000003</v>
+        <v>32.84</v>
       </c>
       <c r="AA15">
         <v>46.37</v>
@@ -1810,7 +1797,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1836,7 +1823,7 @@
         <v>25.15</v>
       </c>
       <c r="I16">
-        <v>35.450000000000003</v>
+        <v>35.45</v>
       </c>
       <c r="J16">
         <v>42.63</v>
@@ -1845,7 +1832,7 @@
         <v>34.08</v>
       </c>
       <c r="L16">
-        <v>38.840000000000003</v>
+        <v>38.84</v>
       </c>
       <c r="M16">
         <v>34.56</v>
@@ -1872,13 +1859,13 @@
         <v>38</v>
       </c>
       <c r="U16">
-        <v>39.020000000000003</v>
+        <v>39.02</v>
       </c>
       <c r="V16">
         <v>29.74</v>
       </c>
       <c r="W16">
-        <v>33.450000000000003</v>
+        <v>33.45</v>
       </c>
       <c r="X16">
         <v>29.19</v>
@@ -1887,7 +1874,7 @@
         <v>33.46</v>
       </c>
       <c r="Z16">
-        <v>32.630000000000003</v>
+        <v>32.63</v>
       </c>
       <c r="AA16">
         <v>43.81</v>
@@ -1899,7 +1886,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1910,7 +1897,7 @@
         <v>32.28</v>
       </c>
       <c r="D17">
-        <v>33.450000000000003</v>
+        <v>33.45</v>
       </c>
       <c r="E17">
         <v>31.57</v>
@@ -1937,10 +1924,10 @@
         <v>36.25</v>
       </c>
       <c r="M17">
-        <v>34.619999999999997</v>
+        <v>34.62</v>
       </c>
       <c r="N17">
-        <v>36.770000000000003</v>
+        <v>36.77</v>
       </c>
       <c r="O17">
         <v>57.02</v>
@@ -1967,7 +1954,7 @@
         <v>29.64</v>
       </c>
       <c r="W17">
-        <v>34.090000000000003</v>
+        <v>34.09</v>
       </c>
       <c r="X17">
         <v>30.62</v>
@@ -1988,7 +1975,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2029,7 +2016,7 @@
         <v>34.78</v>
       </c>
       <c r="N18">
-        <v>36.770000000000003</v>
+        <v>36.77</v>
       </c>
       <c r="O18">
         <v>57.62</v>
@@ -2041,7 +2028,7 @@
         <v>25.33</v>
       </c>
       <c r="R18">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="S18">
         <v>47.43</v>
@@ -2056,7 +2043,7 @@
         <v>29.61</v>
       </c>
       <c r="W18">
-        <v>33.880000000000003</v>
+        <v>33.88</v>
       </c>
       <c r="X18">
         <v>31.04</v>
@@ -2077,7 +2064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2097,7 +2084,7 @@
         <v>34.5</v>
       </c>
       <c r="G19">
-        <v>32.479999999999997</v>
+        <v>32.48</v>
       </c>
       <c r="H19">
         <v>24.95</v>
@@ -2145,7 +2132,7 @@
         <v>29.98</v>
       </c>
       <c r="W19">
-        <v>34.020000000000003</v>
+        <v>34.02</v>
       </c>
       <c r="X19">
         <v>30.35</v>
@@ -2166,7 +2153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2252,10 +2239,10 @@
         <v>31.33</v>
       </c>
       <c r="AC20">
-        <v>9.6666666666666661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+        <v>9.666666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2335,16 +2322,16 @@
         <v>29.92</v>
       </c>
       <c r="AA21">
-        <v>36.979999999999997</v>
+        <v>36.98</v>
       </c>
       <c r="AB21">
         <v>30.57</v>
       </c>
       <c r="AC21">
-        <v>8.6300662133995463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+        <v>8.630066213399546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2430,10 +2417,10 @@
         <v>31.35</v>
       </c>
       <c r="AC22">
-        <v>17.330558965154431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+        <v>17.33055896515443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2471,7 +2458,7 @@
         <v>29.93</v>
       </c>
       <c r="M23">
-        <v>33.270000000000003</v>
+        <v>33.27</v>
       </c>
       <c r="N23">
         <v>34.79</v>
@@ -2513,7 +2500,7 @@
         <v>29.08</v>
       </c>
       <c r="AA23">
-        <v>36.619999999999997</v>
+        <v>36.62</v>
       </c>
       <c r="AB23">
         <v>31.3</v>
@@ -2522,7 +2509,7 @@
         <v>51.2784045599536</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2608,10 +2595,10 @@
         <v>32.33</v>
       </c>
       <c r="AC24">
-        <v>65.545918367346943</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+        <v>65.54591836734694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2691,7 +2678,7 @@
         <v>27</v>
       </c>
       <c r="AA25">
-        <v>36.450000000000003</v>
+        <v>36.45</v>
       </c>
       <c r="AB25">
         <v>31.71</v>
@@ -2700,7 +2687,7 @@
         <v>70.22999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2789,7 +2776,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2836,10 +2823,10 @@
         <v>54.97</v>
       </c>
       <c r="P27">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="Q27">
-        <v>19.079999999999998</v>
+        <v>19.08</v>
       </c>
       <c r="R27">
         <v>24.03</v>
@@ -2869,7 +2856,7 @@
         <v>26.25</v>
       </c>
       <c r="AA27">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="AB27">
         <v>29.76</v>
@@ -2878,7 +2865,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2913,7 +2900,7 @@
         <v>29.51</v>
       </c>
       <c r="L28">
-        <v>32.229999999999997</v>
+        <v>32.23</v>
       </c>
       <c r="M28">
         <v>31.68</v>
@@ -2925,7 +2912,7 @@
         <v>55.47</v>
       </c>
       <c r="P28">
-        <v>20.350000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="Q28">
         <v>20.12</v>
@@ -2940,7 +2927,7 @@
         <v>28.5</v>
       </c>
       <c r="U28">
-        <v>32.869999999999997</v>
+        <v>32.87</v>
       </c>
       <c r="V28">
         <v>26.56</v>
@@ -2967,7 +2954,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3029,7 +3016,7 @@
         <v>29</v>
       </c>
       <c r="U29">
-        <v>34.119999999999997</v>
+        <v>34.12</v>
       </c>
       <c r="V29">
         <v>27.31</v>
@@ -3050,13 +3037,13 @@
         <v>38.06</v>
       </c>
       <c r="AB29">
-        <v>32.729999999999997</v>
+        <v>32.73</v>
       </c>
       <c r="AC29">
         <v>37.25</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3118,7 +3105,7 @@
         <v>29.75</v>
       </c>
       <c r="U30">
-        <v>34.380000000000003</v>
+        <v>34.38</v>
       </c>
       <c r="V30">
         <v>27.41</v>
@@ -3136,7 +3123,7 @@
         <v>27.41</v>
       </c>
       <c r="AA30">
-        <v>38.700000000000003</v>
+        <v>38.7</v>
       </c>
       <c r="AB30">
         <v>32.83</v>
@@ -3145,7 +3132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3207,7 +3194,7 @@
         <v>30</v>
       </c>
       <c r="U31">
-        <v>34.450000000000003</v>
+        <v>34.45</v>
       </c>
       <c r="V31">
         <v>27.39</v>
@@ -3228,13 +3215,13 @@
         <v>38.51</v>
       </c>
       <c r="AB31">
-        <v>32.979999999999997</v>
+        <v>32.98</v>
       </c>
       <c r="AC31">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3275,7 +3262,7 @@
         <v>31.81</v>
       </c>
       <c r="N32">
-        <v>34.380000000000003</v>
+        <v>34.38</v>
       </c>
       <c r="O32">
         <v>58.49</v>
@@ -3317,13 +3304,13 @@
         <v>38.07</v>
       </c>
       <c r="AB32">
-        <v>32.450000000000003</v>
+        <v>32.45</v>
       </c>
       <c r="AC32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3352,7 +3339,7 @@
         <v>27.58</v>
       </c>
       <c r="J33">
-        <v>40.630000000000003</v>
+        <v>40.63</v>
       </c>
       <c r="K33">
         <v>29.71</v>
@@ -3364,7 +3351,7 @@
         <v>29.86</v>
       </c>
       <c r="N33">
-        <v>34.090000000000003</v>
+        <v>34.09</v>
       </c>
       <c r="O33">
         <v>57.52</v>
@@ -3412,7 +3399,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3492,7 +3479,7 @@
         <v>25.89</v>
       </c>
       <c r="AA34">
-        <v>37.549999999999997</v>
+        <v>37.55</v>
       </c>
       <c r="AB34">
         <v>31.43</v>
@@ -3501,7 +3488,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3548,7 +3535,7 @@
         <v>54.74</v>
       </c>
       <c r="P35">
-        <v>19.489999999999998</v>
+        <v>19.49</v>
       </c>
       <c r="Q35">
         <v>19.38</v>
@@ -3590,7 +3577,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3637,10 +3624,10 @@
         <v>54.71</v>
       </c>
       <c r="P36">
-        <v>18.239999999999998</v>
+        <v>18.24</v>
       </c>
       <c r="Q36">
-        <v>17.940000000000001</v>
+        <v>17.94</v>
       </c>
       <c r="R36">
         <v>21.67</v>
@@ -3670,7 +3657,7 @@
         <v>23.67</v>
       </c>
       <c r="AA36">
-        <v>37.119999999999997</v>
+        <v>37.12</v>
       </c>
       <c r="AB36">
         <v>29.6</v>
@@ -3679,7 +3666,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3702,7 +3689,7 @@
         <v>23.18</v>
       </c>
       <c r="H37">
-        <v>20.239999999999998</v>
+        <v>20.24</v>
       </c>
       <c r="I37">
         <v>23.5</v>
@@ -3765,10 +3752,10 @@
         <v>27.96</v>
       </c>
       <c r="AC37">
-        <v>75.400000000000006</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+        <v>75.40000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3797,7 +3784,7 @@
         <v>24.47</v>
       </c>
       <c r="J38">
-        <v>37.520000000000003</v>
+        <v>37.52</v>
       </c>
       <c r="K38">
         <v>27.77</v>
@@ -3818,7 +3805,7 @@
         <v>17.71</v>
       </c>
       <c r="Q38">
-        <v>16.920000000000002</v>
+        <v>16.92</v>
       </c>
       <c r="R38">
         <v>20.96</v>
@@ -3848,7 +3835,7 @@
         <v>23.12</v>
       </c>
       <c r="AA38">
-        <v>35.369999999999997</v>
+        <v>35.37</v>
       </c>
       <c r="AB38">
         <v>27.24</v>
@@ -3857,7 +3844,7 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3946,7 +3933,7 @@
         <v>65.25</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4026,7 +4013,7 @@
         <v>24.21</v>
       </c>
       <c r="AA40">
-        <v>36.479999999999997</v>
+        <v>36.48</v>
       </c>
       <c r="AB40">
         <v>29.6</v>
@@ -4035,7 +4022,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4124,7 +4111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4186,7 +4173,7 @@
         <v>33</v>
       </c>
       <c r="U42">
-        <v>33.049999999999997</v>
+        <v>33.05</v>
       </c>
       <c r="V42">
         <v>29.62</v>
@@ -4213,7 +4200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4230,19 +4217,19 @@
         <v>27.02</v>
       </c>
       <c r="F43">
-        <v>33.479999999999997</v>
+        <v>33.48</v>
       </c>
       <c r="G43">
         <v>33.67</v>
       </c>
       <c r="H43">
-        <v>32.340000000000003</v>
+        <v>32.34</v>
       </c>
       <c r="I43">
         <v>35.06</v>
       </c>
       <c r="J43">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="K43">
         <v>30.39</v>
@@ -4254,7 +4241,7 @@
         <v>31.3</v>
       </c>
       <c r="N43">
-        <v>34.340000000000003</v>
+        <v>34.34</v>
       </c>
       <c r="O43">
         <v>57.33</v>
@@ -4275,7 +4262,7 @@
         <v>37.5</v>
       </c>
       <c r="U43">
-        <v>34.700000000000003</v>
+        <v>34.7</v>
       </c>
       <c r="V43">
         <v>30.67</v>
@@ -4293,7 +4280,7 @@
         <v>28.29</v>
       </c>
       <c r="AA43">
-        <v>37.549999999999997</v>
+        <v>37.55</v>
       </c>
       <c r="AB43">
         <v>34.79</v>
@@ -4302,7 +4289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4319,16 +4306,16 @@
         <v>27.9</v>
       </c>
       <c r="F44">
-        <v>35.369999999999997</v>
+        <v>35.37</v>
       </c>
       <c r="G44">
-        <v>34.130000000000003</v>
+        <v>34.13</v>
       </c>
       <c r="H44">
-        <v>32.659999999999997</v>
+        <v>32.66</v>
       </c>
       <c r="I44">
-        <v>35.450000000000003</v>
+        <v>35.45</v>
       </c>
       <c r="J44">
         <v>38.71</v>
@@ -4337,7 +4324,7 @@
         <v>30.68</v>
       </c>
       <c r="L44">
-        <v>34.229999999999997</v>
+        <v>34.23</v>
       </c>
       <c r="M44">
         <v>31.69</v>
@@ -4364,7 +4351,7 @@
         <v>34.5</v>
       </c>
       <c r="U44">
-        <v>34.880000000000003</v>
+        <v>34.88</v>
       </c>
       <c r="V44">
         <v>30.21</v>
@@ -4382,7 +4369,7 @@
         <v>29.15</v>
       </c>
       <c r="AA44">
-        <v>37.409999999999997</v>
+        <v>37.41</v>
       </c>
       <c r="AB44">
         <v>37</v>
@@ -4391,7 +4378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4408,19 +4395,19 @@
         <v>28.79</v>
       </c>
       <c r="F45">
-        <v>36.450000000000003</v>
+        <v>36.45</v>
       </c>
       <c r="G45">
         <v>33.97</v>
       </c>
       <c r="H45">
-        <v>32.549999999999997</v>
+        <v>32.55</v>
       </c>
       <c r="I45">
         <v>34.18</v>
       </c>
       <c r="J45">
-        <v>37.369999999999997</v>
+        <v>37.37</v>
       </c>
       <c r="K45">
         <v>30.68</v>
@@ -4453,7 +4440,7 @@
         <v>35</v>
       </c>
       <c r="U45">
-        <v>34.880000000000003</v>
+        <v>34.88</v>
       </c>
       <c r="V45">
         <v>30.57</v>
@@ -4480,7 +4467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4488,7 +4475,7 @@
         <v>42795</v>
       </c>
       <c r="C46">
-        <v>33.729999999999997</v>
+        <v>33.73</v>
       </c>
       <c r="D46">
         <v>30.88</v>
@@ -4503,7 +4490,7 @@
         <v>33.56</v>
       </c>
       <c r="H46">
-        <v>32.130000000000003</v>
+        <v>32.13</v>
       </c>
       <c r="I46">
         <v>31.66</v>
@@ -4563,13 +4550,13 @@
         <v>37.17</v>
       </c>
       <c r="AB46">
-        <v>37.880000000000003</v>
+        <v>37.88</v>
       </c>
       <c r="AC46">
         <v>22.4</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4652,13 +4639,13 @@
         <v>37.08</v>
       </c>
       <c r="AB47">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="AC47">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4666,7 +4653,7 @@
         <v>42856</v>
       </c>
       <c r="C48">
-        <v>32.950000000000003</v>
+        <v>32.95</v>
       </c>
       <c r="D48">
         <v>29.33</v>
@@ -4684,7 +4671,7 @@
         <v>30.76</v>
       </c>
       <c r="I48">
-        <v>32.630000000000003</v>
+        <v>32.63</v>
       </c>
       <c r="J48">
         <v>37.9</v>
@@ -4699,7 +4686,7 @@
         <v>30.87</v>
       </c>
       <c r="N48">
-        <v>36.619999999999997</v>
+        <v>36.62</v>
       </c>
       <c r="O48">
         <v>54.42</v>
@@ -4741,13 +4728,13 @@
         <v>36.94</v>
       </c>
       <c r="AB48">
-        <v>35.340000000000003</v>
+        <v>35.34</v>
       </c>
       <c r="AC48">
         <v>70.75</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4767,7 +4754,7 @@
         <v>34.82</v>
       </c>
       <c r="G49">
-        <v>34.380000000000003</v>
+        <v>34.38</v>
       </c>
       <c r="H49">
         <v>31.55</v>
@@ -4776,7 +4763,7 @@
         <v>33.6</v>
       </c>
       <c r="J49">
-        <v>38.020000000000003</v>
+        <v>38.02</v>
       </c>
       <c r="K49">
         <v>30.1</v>
@@ -4788,7 +4775,7 @@
         <v>30.54</v>
       </c>
       <c r="N49">
-        <v>36.619999999999997</v>
+        <v>36.62</v>
       </c>
       <c r="O49">
         <v>54.67</v>
@@ -4833,10 +4820,10 @@
         <v>34.54</v>
       </c>
       <c r="AC49">
-        <v>77.400000000000006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+        <v>77.40000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4865,7 +4852,7 @@
         <v>34.96</v>
       </c>
       <c r="J50">
-        <v>38.020000000000003</v>
+        <v>38.02</v>
       </c>
       <c r="K50">
         <v>30.1</v>
@@ -4919,13 +4906,13 @@
         <v>37.5</v>
       </c>
       <c r="AB50">
-        <v>36.590000000000003</v>
+        <v>36.59</v>
       </c>
       <c r="AC50">
         <v>67.25</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4987,7 +4974,7 @@
         <v>38.5</v>
       </c>
       <c r="U51">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="V51">
         <v>32.57</v>
@@ -5005,7 +4992,7 @@
         <v>30.91</v>
       </c>
       <c r="AA51">
-        <v>37.659999999999997</v>
+        <v>37.66</v>
       </c>
       <c r="AB51">
         <v>37.99</v>
@@ -5014,7 +5001,7 @@
         <v>67.25</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5022,7 +5009,7 @@
         <v>42979</v>
       </c>
       <c r="C52">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="D52">
         <v>30.6</v>
@@ -5043,7 +5030,7 @@
         <v>40.79</v>
       </c>
       <c r="J52">
-        <v>39.340000000000003</v>
+        <v>39.34</v>
       </c>
       <c r="K52">
         <v>31.26</v>
@@ -5055,7 +5042,7 @@
         <v>30.84</v>
       </c>
       <c r="N52">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="O52">
         <v>56.58</v>
@@ -5088,7 +5075,7 @@
         <v>29.46</v>
       </c>
       <c r="Y52">
-        <v>32.380000000000003</v>
+        <v>32.38</v>
       </c>
       <c r="Z52">
         <v>31.97</v>
@@ -5097,13 +5084,13 @@
         <v>38.22</v>
       </c>
       <c r="AB52">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="AC52">
         <v>58.6</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5117,13 +5104,13 @@
         <v>31.27</v>
       </c>
       <c r="E53">
-        <v>34.369999999999997</v>
+        <v>34.37</v>
       </c>
       <c r="F53">
-        <v>39.229999999999997</v>
+        <v>39.23</v>
       </c>
       <c r="G53">
-        <v>40.340000000000003</v>
+        <v>40.34</v>
       </c>
       <c r="H53">
         <v>34.4</v>
@@ -5177,22 +5164,22 @@
         <v>31.37</v>
       </c>
       <c r="Y53">
-        <v>32.950000000000003</v>
+        <v>32.95</v>
       </c>
       <c r="Z53">
         <v>33.06</v>
       </c>
       <c r="AA53">
-        <v>38.880000000000003</v>
+        <v>38.88</v>
       </c>
       <c r="AB53">
-        <v>40.869999999999997</v>
+        <v>40.87</v>
       </c>
       <c r="AC53">
         <v>34.75</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5212,7 +5199,7 @@
         <v>39.24</v>
       </c>
       <c r="G54">
-        <v>40.520000000000003</v>
+        <v>40.52</v>
       </c>
       <c r="H54">
         <v>34.17</v>
@@ -5224,25 +5211,25 @@
         <v>40.6</v>
       </c>
       <c r="K54">
-        <v>32.520000000000003</v>
+        <v>32.52</v>
       </c>
       <c r="L54">
         <v>36.4</v>
       </c>
       <c r="M54">
-        <v>32.340000000000003</v>
+        <v>32.34</v>
       </c>
       <c r="N54">
-        <v>38.020000000000003</v>
+        <v>38.02</v>
       </c>
       <c r="O54">
         <v>56.77</v>
       </c>
       <c r="P54">
-        <v>32.729999999999997</v>
+        <v>32.73</v>
       </c>
       <c r="Q54">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="R54">
         <v>32.32</v>
@@ -5257,7 +5244,7 @@
         <v>41.44</v>
       </c>
       <c r="V54">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="W54">
         <v>32.01</v>
@@ -5281,7 +5268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5307,7 +5294,7 @@
         <v>33.17</v>
       </c>
       <c r="I55">
-        <v>40.590000000000003</v>
+        <v>40.59</v>
       </c>
       <c r="J55">
         <v>40.74</v>
@@ -5319,7 +5306,7 @@
         <v>36.01</v>
       </c>
       <c r="M55">
-        <v>33.119999999999997</v>
+        <v>33.12</v>
       </c>
       <c r="N55">
         <v>38.08</v>
@@ -5328,13 +5315,13 @@
         <v>55.96</v>
       </c>
       <c r="P55">
-        <v>32.590000000000003</v>
+        <v>32.59</v>
       </c>
       <c r="Q55">
-        <v>32.229999999999997</v>
+        <v>32.23</v>
       </c>
       <c r="R55">
-        <v>32.450000000000003</v>
+        <v>32.45</v>
       </c>
       <c r="S55">
         <v>49.16</v>
@@ -5349,7 +5336,7 @@
         <v>36.07</v>
       </c>
       <c r="W55">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="X55">
         <v>31.97</v>
@@ -5364,13 +5351,13 @@
         <v>38.78</v>
       </c>
       <c r="AB55">
-        <v>40.049999999999997</v>
+        <v>40.05</v>
       </c>
       <c r="AC55">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5384,7 +5371,7 @@
         <v>31.99</v>
       </c>
       <c r="E56">
-        <v>34.479999999999997</v>
+        <v>34.48</v>
       </c>
       <c r="F56">
         <v>35.86</v>
@@ -5399,13 +5386,13 @@
         <v>39.43</v>
       </c>
       <c r="J56">
-        <v>40.479999999999997</v>
+        <v>40.48</v>
       </c>
       <c r="K56">
         <v>31.94</v>
       </c>
       <c r="L56">
-        <v>35.270000000000003</v>
+        <v>35.27</v>
       </c>
       <c r="M56">
         <v>33.21</v>
@@ -5423,7 +5410,7 @@
         <v>30.76</v>
       </c>
       <c r="R56">
-        <v>32.130000000000003</v>
+        <v>32.13</v>
       </c>
       <c r="S56">
         <v>46.97</v>
@@ -5432,10 +5419,10 @@
         <v>37.5</v>
       </c>
       <c r="U56">
-        <v>40.270000000000003</v>
+        <v>40.27</v>
       </c>
       <c r="V56">
-        <v>34.020000000000003</v>
+        <v>34.02</v>
       </c>
       <c r="W56">
         <v>31.16</v>
@@ -5459,7 +5446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5479,7 +5466,7 @@
         <v>33.44</v>
       </c>
       <c r="G57">
-        <v>34.880000000000003</v>
+        <v>34.88</v>
       </c>
       <c r="H57">
         <v>30.24</v>
@@ -5488,7 +5475,7 @@
         <v>37</v>
       </c>
       <c r="J57">
-        <v>40.369999999999997</v>
+        <v>40.37</v>
       </c>
       <c r="K57">
         <v>31.94</v>
@@ -5500,7 +5487,7 @@
         <v>33.4</v>
       </c>
       <c r="N57">
-        <v>35.979999999999997</v>
+        <v>35.98</v>
       </c>
       <c r="O57">
         <v>54.92</v>
@@ -5524,7 +5511,7 @@
         <v>38.18</v>
       </c>
       <c r="V57">
-        <v>32.950000000000003</v>
+        <v>32.95</v>
       </c>
       <c r="W57">
         <v>31.39</v>
@@ -5536,19 +5523,19 @@
         <v>29.88</v>
       </c>
       <c r="Z57">
-        <v>33.020000000000003</v>
+        <v>33.02</v>
       </c>
       <c r="AA57">
-        <v>39.270000000000003</v>
+        <v>39.27</v>
       </c>
       <c r="AB57">
-        <v>35.770000000000003</v>
+        <v>35.77</v>
       </c>
       <c r="AC57">
         <v>6.5</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5577,7 +5564,7 @@
         <v>33.31</v>
       </c>
       <c r="J58">
-        <v>39.979999999999997</v>
+        <v>39.98</v>
       </c>
       <c r="K58">
         <v>31.46</v>
@@ -5613,7 +5600,7 @@
         <v>36.96</v>
       </c>
       <c r="V58">
-        <v>32.409999999999997</v>
+        <v>32.41</v>
       </c>
       <c r="W58">
         <v>30.18</v>
@@ -5637,7 +5624,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5651,10 +5638,10 @@
         <v>29.12</v>
       </c>
       <c r="E59">
-        <v>32.049999999999997</v>
+        <v>32.05</v>
       </c>
       <c r="F59">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="G59">
         <v>32.99</v>
@@ -5726,7 +5713,7 @@
         <v>37.25</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5743,10 +5730,10 @@
         <v>31.21</v>
       </c>
       <c r="F60">
-        <v>34.229999999999997</v>
+        <v>34.23</v>
       </c>
       <c r="G60">
-        <v>32.380000000000003</v>
+        <v>32.38</v>
       </c>
       <c r="H60">
         <v>29.23</v>
@@ -5788,7 +5775,7 @@
         <v>34</v>
       </c>
       <c r="U60">
-        <v>35.020000000000003</v>
+        <v>35.02</v>
       </c>
       <c r="V60">
         <v>30.69</v>
@@ -5806,7 +5793,7 @@
         <v>30.65</v>
       </c>
       <c r="AA60">
-        <v>36.409999999999997</v>
+        <v>36.41</v>
       </c>
       <c r="AB60">
         <v>31.68</v>
@@ -5815,7 +5802,7 @@
         <v>72.25</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5850,7 +5837,7 @@
         <v>30.39</v>
       </c>
       <c r="L61">
-        <v>32.630000000000003</v>
+        <v>32.63</v>
       </c>
       <c r="M61">
         <v>31.6</v>
@@ -5877,7 +5864,7 @@
         <v>34.25</v>
       </c>
       <c r="U61">
-        <v>34.549999999999997</v>
+        <v>34.55</v>
       </c>
       <c r="V61">
         <v>30.4</v>
@@ -5901,10 +5888,10 @@
         <v>31.63</v>
       </c>
       <c r="AC61">
-        <v>68.400000000000006</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+        <v>68.40000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5939,10 +5926,10 @@
         <v>30.29</v>
       </c>
       <c r="L62">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="M62">
-        <v>32.159999999999997</v>
+        <v>32.16</v>
       </c>
       <c r="N62">
         <v>35.25</v>
@@ -5987,13 +5974,13 @@
         <v>35.86</v>
       </c>
       <c r="AB62">
-        <v>33.020000000000003</v>
+        <v>33.02</v>
       </c>
       <c r="AC62">
         <v>28.25</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6019,16 +6006,16 @@
         <v>30.34</v>
       </c>
       <c r="I63">
-        <v>33.409999999999997</v>
+        <v>33.41</v>
       </c>
       <c r="J63">
-        <v>39.590000000000003</v>
+        <v>39.59</v>
       </c>
       <c r="K63">
         <v>30.49</v>
       </c>
       <c r="L63">
-        <v>34.630000000000003</v>
+        <v>34.63</v>
       </c>
       <c r="M63">
         <v>31.65</v>
@@ -6055,7 +6042,7 @@
         <v>35.75</v>
       </c>
       <c r="U63">
-        <v>35.119999999999997</v>
+        <v>35.12</v>
       </c>
       <c r="V63">
         <v>30.72</v>
@@ -6082,7 +6069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6090,7 +6077,7 @@
         <v>43344</v>
       </c>
       <c r="C64">
-        <v>33.729999999999997</v>
+        <v>33.73</v>
       </c>
       <c r="D64">
         <v>29.72</v>
@@ -6099,7 +6086,7 @@
         <v>31.96</v>
       </c>
       <c r="F64">
-        <v>37.950000000000003</v>
+        <v>37.95</v>
       </c>
       <c r="G64">
         <v>35.43</v>
@@ -6117,7 +6104,7 @@
         <v>30.78</v>
       </c>
       <c r="L64">
-        <v>35.979999999999997</v>
+        <v>35.98</v>
       </c>
       <c r="M64">
         <v>33</v>
@@ -6144,7 +6131,7 @@
         <v>37</v>
       </c>
       <c r="U64">
-        <v>36.450000000000003</v>
+        <v>36.45</v>
       </c>
       <c r="V64">
         <v>31.6</v>
@@ -6165,13 +6152,13 @@
         <v>37.6</v>
       </c>
       <c r="AB64">
-        <v>34.700000000000003</v>
+        <v>34.7</v>
       </c>
       <c r="AC64">
         <v>54.4</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6179,7 +6166,7 @@
         <v>43374</v>
       </c>
       <c r="C65">
-        <v>35.119999999999997</v>
+        <v>35.12</v>
       </c>
       <c r="D65">
         <v>30.3</v>
@@ -6191,7 +6178,7 @@
         <v>37.94</v>
       </c>
       <c r="G65">
-        <v>36.630000000000003</v>
+        <v>36.63</v>
       </c>
       <c r="H65">
         <v>31.8</v>
@@ -6209,7 +6196,7 @@
         <v>36.71</v>
       </c>
       <c r="M65">
-        <v>33.840000000000003</v>
+        <v>33.84</v>
       </c>
       <c r="N65">
         <v>36.81</v>
@@ -6248,10 +6235,10 @@
         <v>31.98</v>
       </c>
       <c r="Z65">
-        <v>32.450000000000003</v>
+        <v>32.45</v>
       </c>
       <c r="AA65">
-        <v>38.869999999999997</v>
+        <v>38.87</v>
       </c>
       <c r="AB65">
         <v>37.57</v>
@@ -6260,7 +6247,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6280,7 +6267,7 @@
         <v>37.93</v>
       </c>
       <c r="G66">
-        <v>37.159999999999997</v>
+        <v>37.16</v>
       </c>
       <c r="H66">
         <v>32.29</v>
@@ -6295,7 +6282,7 @@
         <v>32.33</v>
       </c>
       <c r="L66">
-        <v>36.729999999999997</v>
+        <v>36.73</v>
       </c>
       <c r="M66">
         <v>33.69</v>
@@ -6334,7 +6321,7 @@
         <v>31.62</v>
       </c>
       <c r="Y66">
-        <v>32.380000000000003</v>
+        <v>32.38</v>
       </c>
       <c r="Z66">
         <v>32.92</v>
@@ -6349,7 +6336,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6387,10 +6374,10 @@
         <v>36</v>
       </c>
       <c r="M67">
-        <v>34.340000000000003</v>
+        <v>34.34</v>
       </c>
       <c r="N67">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="O67">
         <v>58.11</v>
@@ -6411,10 +6398,10 @@
         <v>37.25</v>
       </c>
       <c r="U67">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="V67">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="W67">
         <v>31.84</v>
@@ -6426,7 +6413,7 @@
         <v>31.95</v>
       </c>
       <c r="Z67">
-        <v>33.159999999999997</v>
+        <v>33.16</v>
       </c>
       <c r="AA67">
         <v>38.57</v>
@@ -6438,7 +6425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6452,10 +6439,10 @@
         <v>30.94</v>
       </c>
       <c r="E68">
-        <v>34.659999999999997</v>
+        <v>34.66</v>
       </c>
       <c r="F68">
-        <v>34.159999999999997</v>
+        <v>34.16</v>
       </c>
       <c r="G68">
         <v>35.47</v>
@@ -6467,13 +6454,13 @@
         <v>34.28</v>
       </c>
       <c r="J68">
-        <v>38.880000000000003</v>
+        <v>38.88</v>
       </c>
       <c r="K68">
         <v>32.04</v>
       </c>
       <c r="L68">
-        <v>36.119999999999997</v>
+        <v>36.12</v>
       </c>
       <c r="M68">
         <v>33.96</v>
@@ -6503,7 +6490,7 @@
         <v>38.25</v>
       </c>
       <c r="V68">
-        <v>32.479999999999997</v>
+        <v>32.48</v>
       </c>
       <c r="W68">
         <v>31.09</v>
@@ -6527,7 +6514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6553,10 +6540,10 @@
         <v>32.03</v>
       </c>
       <c r="I69">
-        <v>34.380000000000003</v>
+        <v>34.38</v>
       </c>
       <c r="J69">
-        <v>38.880000000000003</v>
+        <v>38.88</v>
       </c>
       <c r="K69">
         <v>32.04</v>
@@ -6565,7 +6552,7 @@
         <v>36.06</v>
       </c>
       <c r="M69">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="N69">
         <v>39.65</v>
@@ -6589,10 +6576,10 @@
         <v>36.5</v>
       </c>
       <c r="U69">
-        <v>38.020000000000003</v>
+        <v>38.02</v>
       </c>
       <c r="V69">
-        <v>32.229999999999997</v>
+        <v>32.23</v>
       </c>
       <c r="W69">
         <v>31.71</v>
@@ -6616,7 +6603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6624,7 +6611,7 @@
         <v>43525</v>
       </c>
       <c r="C70">
-        <v>33.590000000000003</v>
+        <v>33.59</v>
       </c>
       <c r="D70">
         <v>30.76</v>
@@ -6642,7 +6629,7 @@
         <v>31.57</v>
       </c>
       <c r="I70">
-        <v>32.630000000000003</v>
+        <v>32.63</v>
       </c>
       <c r="J70">
         <v>38.29</v>
@@ -6690,7 +6677,7 @@
         <v>31.04</v>
       </c>
       <c r="Y70">
-        <v>32.270000000000003</v>
+        <v>32.27</v>
       </c>
       <c r="Z70">
         <v>32.78</v>
@@ -6705,7 +6692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6722,7 +6709,7 @@
         <v>33.71</v>
       </c>
       <c r="F71">
-        <v>34.159999999999997</v>
+        <v>34.16</v>
       </c>
       <c r="G71">
         <v>34.49</v>
@@ -6734,7 +6721,7 @@
         <v>31.66</v>
       </c>
       <c r="J71">
-        <v>38.229999999999997</v>
+        <v>38.23</v>
       </c>
       <c r="K71">
         <v>31.65</v>
@@ -6767,7 +6754,7 @@
         <v>36</v>
       </c>
       <c r="U71">
-        <v>37.840000000000003</v>
+        <v>37.84</v>
       </c>
       <c r="V71">
         <v>31.77</v>
@@ -6788,13 +6775,13 @@
         <v>37.85</v>
       </c>
       <c r="AB71">
-        <v>35.130000000000003</v>
+        <v>35.13</v>
       </c>
       <c r="AC71">
         <v>42.75</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6802,7 +6789,7 @@
         <v>43586</v>
       </c>
       <c r="C72">
-        <v>32.479999999999997</v>
+        <v>32.48</v>
       </c>
       <c r="D72">
         <v>29.72</v>
@@ -6835,7 +6822,7 @@
         <v>33.28</v>
       </c>
       <c r="N72">
-        <v>39.090000000000003</v>
+        <v>39.09</v>
       </c>
       <c r="O72">
         <v>57.14</v>
@@ -6856,7 +6843,7 @@
         <v>35.25</v>
       </c>
       <c r="U72">
-        <v>37.450000000000003</v>
+        <v>37.45</v>
       </c>
       <c r="V72">
         <v>31.49</v>
@@ -6874,7 +6861,7 @@
         <v>32.61</v>
       </c>
       <c r="AA72">
-        <v>37.409999999999997</v>
+        <v>37.41</v>
       </c>
       <c r="AB72">
         <v>34</v>
@@ -6883,7 +6870,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6912,7 +6899,7 @@
         <v>31.95</v>
       </c>
       <c r="J73">
-        <v>38.090000000000003</v>
+        <v>38.09</v>
       </c>
       <c r="K73">
         <v>31.17</v>
@@ -6921,10 +6908,10 @@
         <v>35.74</v>
       </c>
       <c r="M73">
-        <v>32.520000000000003</v>
+        <v>32.52</v>
       </c>
       <c r="N73">
-        <v>39.090000000000003</v>
+        <v>39.09</v>
       </c>
       <c r="O73">
         <v>56.79</v>
@@ -6966,13 +6953,13 @@
         <v>36.96</v>
       </c>
       <c r="AB73">
-        <v>34.340000000000003</v>
+        <v>34.34</v>
       </c>
       <c r="AC73">
-        <v>68.599999999999994</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+        <v>68.59999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6989,7 +6976,7 @@
         <v>32.83</v>
       </c>
       <c r="F74">
-        <v>34.159999999999997</v>
+        <v>34.16</v>
       </c>
       <c r="G74">
         <v>32.93</v>
@@ -7013,7 +7000,7 @@
         <v>32.44</v>
       </c>
       <c r="N74">
-        <v>39.159999999999997</v>
+        <v>39.16</v>
       </c>
       <c r="O74">
         <v>57.01</v>
@@ -7052,16 +7039,16 @@
         <v>31.99</v>
       </c>
       <c r="AA74">
-        <v>37.619999999999997</v>
+        <v>37.62</v>
       </c>
       <c r="AB74">
-        <v>34.020000000000003</v>
+        <v>34.02</v>
       </c>
       <c r="AC74">
         <v>62.25</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7099,7 +7086,7 @@
         <v>36.75</v>
       </c>
       <c r="M75">
-        <v>32.409999999999997</v>
+        <v>32.41</v>
       </c>
       <c r="N75">
         <v>39.58</v>
@@ -7123,7 +7110,7 @@
         <v>35</v>
       </c>
       <c r="U75">
-        <v>35.450000000000003</v>
+        <v>35.45</v>
       </c>
       <c r="V75">
         <v>30.12</v>
@@ -7135,7 +7122,7 @@
         <v>28.96</v>
       </c>
       <c r="Y75">
-        <v>32.020000000000003</v>
+        <v>32.02</v>
       </c>
       <c r="Z75">
         <v>31.67</v>
@@ -7144,13 +7131,13 @@
         <v>37.94</v>
       </c>
       <c r="AB75">
-        <v>33.369999999999997</v>
+        <v>33.37</v>
       </c>
       <c r="AC75">
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7170,13 +7157,13 @@
         <v>34.03</v>
       </c>
       <c r="G76">
-        <v>33.880000000000003</v>
+        <v>33.88</v>
       </c>
       <c r="H76">
         <v>30.3</v>
       </c>
       <c r="I76">
-        <v>34.479999999999997</v>
+        <v>34.48</v>
       </c>
       <c r="J76">
         <v>38.72</v>
@@ -7188,7 +7175,7 @@
         <v>37.83</v>
       </c>
       <c r="M76">
-        <v>32.950000000000003</v>
+        <v>32.95</v>
       </c>
       <c r="N76">
         <v>39.69</v>
@@ -7233,13 +7220,13 @@
         <v>38.69</v>
       </c>
       <c r="AB76">
-        <v>34.299999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="AC76">
         <v>55.2</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7247,13 +7234,13 @@
         <v>43739</v>
       </c>
       <c r="C77">
-        <v>33.479999999999997</v>
+        <v>33.48</v>
       </c>
       <c r="D77">
         <v>31.02</v>
       </c>
       <c r="E77">
-        <v>33.270000000000003</v>
+        <v>33.27</v>
       </c>
       <c r="F77">
         <v>34.01</v>
@@ -7319,7 +7306,7 @@
         <v>32.68</v>
       </c>
       <c r="AA77">
-        <v>39.840000000000003</v>
+        <v>39.84</v>
       </c>
       <c r="AB77">
         <v>35.01</v>
@@ -7328,7 +7315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7342,7 +7329,7 @@
         <v>31.54</v>
       </c>
       <c r="E78">
-        <v>33.950000000000003</v>
+        <v>33.95</v>
       </c>
       <c r="F78">
         <v>33.99</v>
@@ -7357,19 +7344,19 @@
         <v>37.29</v>
       </c>
       <c r="J78">
-        <v>38.479999999999997</v>
+        <v>38.48</v>
       </c>
       <c r="K78">
         <v>33.01</v>
       </c>
       <c r="L78">
-        <v>37.770000000000003</v>
+        <v>37.77</v>
       </c>
       <c r="M78">
         <v>34.06</v>
       </c>
       <c r="N78">
-        <v>39.229999999999997</v>
+        <v>39.23</v>
       </c>
       <c r="O78">
         <v>58.33</v>
@@ -7390,7 +7377,7 @@
         <v>35.5</v>
       </c>
       <c r="U78">
-        <v>36.950000000000003</v>
+        <v>36.95</v>
       </c>
       <c r="V78">
         <v>32.85</v>
@@ -7402,7 +7389,7 @@
         <v>32.68</v>
       </c>
       <c r="Y78">
-        <v>34.049999999999997</v>
+        <v>34.05</v>
       </c>
       <c r="Z78">
         <v>33.03</v>
@@ -7417,7 +7404,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7434,7 +7421,7 @@
         <v>34.25</v>
       </c>
       <c r="F79">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="G79">
         <v>35.29</v>
@@ -7443,7 +7430,7 @@
         <v>31.32</v>
       </c>
       <c r="I79">
-        <v>36.520000000000003</v>
+        <v>36.52</v>
       </c>
       <c r="J79">
         <v>38.89</v>
@@ -7458,7 +7445,7 @@
         <v>34.35</v>
       </c>
       <c r="N79">
-        <v>38.700000000000003</v>
+        <v>38.7</v>
       </c>
       <c r="O79">
         <v>58.45</v>
@@ -7476,7 +7463,7 @@
         <v>52.36</v>
       </c>
       <c r="T79">
-        <v>36.409999999999997</v>
+        <v>36.41</v>
       </c>
       <c r="U79">
         <v>37.31</v>
@@ -7488,16 +7475,16 @@
         <v>30.77</v>
       </c>
       <c r="X79">
-        <v>32.979999999999997</v>
+        <v>32.98</v>
       </c>
       <c r="Y79">
-        <v>34.159999999999997</v>
+        <v>34.16</v>
       </c>
       <c r="Z79">
-        <v>33.130000000000003</v>
+        <v>33.13</v>
       </c>
       <c r="AA79">
-        <v>39.020000000000003</v>
+        <v>39.02</v>
       </c>
       <c r="AB79">
         <v>36.08</v>
@@ -7506,7 +7493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7538,10 +7525,10 @@
         <v>38.82</v>
       </c>
       <c r="K80">
-        <v>32.619999999999997</v>
+        <v>32.62</v>
       </c>
       <c r="L80">
-        <v>37.119999999999997</v>
+        <v>37.12</v>
       </c>
       <c r="M80">
         <v>34.44</v>
@@ -7559,7 +7546,7 @@
         <v>30.84</v>
       </c>
       <c r="R80">
-        <v>32.549999999999997</v>
+        <v>32.55</v>
       </c>
       <c r="S80">
         <v>49.47</v>
@@ -7568,7 +7555,7 @@
         <v>35.75</v>
       </c>
       <c r="U80">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="V80">
         <v>32.76</v>
@@ -7577,13 +7564,13 @@
         <v>30.85</v>
       </c>
       <c r="X80">
-        <v>32.479999999999997</v>
+        <v>32.48</v>
       </c>
       <c r="Y80">
         <v>33.68</v>
       </c>
       <c r="Z80">
-        <v>33.229999999999997</v>
+        <v>33.23</v>
       </c>
       <c r="AA80">
         <v>38.81</v>
@@ -7595,7 +7582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7609,7 +7596,7 @@
         <v>32</v>
       </c>
       <c r="E81">
-        <v>34.479999999999997</v>
+        <v>34.48</v>
       </c>
       <c r="F81">
         <v>35.74</v>
@@ -7627,7 +7614,7 @@
         <v>38.85</v>
       </c>
       <c r="K81">
-        <v>32.619999999999997</v>
+        <v>32.62</v>
       </c>
       <c r="L81">
         <v>36.74</v>
@@ -7684,7 +7671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7704,7 +7691,7 @@
         <v>35.74</v>
       </c>
       <c r="G82">
-        <v>34.880000000000003</v>
+        <v>34.88</v>
       </c>
       <c r="H82">
         <v>31.42</v>
@@ -7713,7 +7700,7 @@
         <v>31.66</v>
       </c>
       <c r="J82">
-        <v>38.770000000000003</v>
+        <v>38.77</v>
       </c>
       <c r="K82">
         <v>32.33</v>
@@ -7746,7 +7733,7 @@
         <v>36.25</v>
       </c>
       <c r="U82">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="V82">
         <v>31.17</v>
@@ -7758,13 +7745,13 @@
         <v>32.33</v>
       </c>
       <c r="Y82">
-        <v>32.630000000000003</v>
+        <v>32.63</v>
       </c>
       <c r="Z82">
         <v>33.21</v>
       </c>
       <c r="AA82">
-        <v>38.979999999999997</v>
+        <v>38.98</v>
       </c>
       <c r="AB82">
         <v>34.9</v>
@@ -7773,7 +7760,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7790,10 +7777,10 @@
         <v>30.82</v>
       </c>
       <c r="F83">
-        <v>34.840000000000003</v>
+        <v>34.84</v>
       </c>
       <c r="G83">
-        <v>34.049999999999997</v>
+        <v>34.05</v>
       </c>
       <c r="H83">
         <v>30.35</v>
@@ -7805,7 +7792,7 @@
         <v>38.76</v>
       </c>
       <c r="K83">
-        <v>32.229999999999997</v>
+        <v>32.23</v>
       </c>
       <c r="L83">
         <v>35.14</v>
@@ -7856,13 +7843,13 @@
         <v>38.94</v>
       </c>
       <c r="AB83">
-        <v>34.840000000000003</v>
+        <v>34.84</v>
       </c>
       <c r="AC83">
         <v>46.5</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7882,7 +7869,7 @@
         <v>34.86</v>
       </c>
       <c r="G84">
-        <v>32.520000000000003</v>
+        <v>32.52</v>
       </c>
       <c r="H84">
         <v>28.42</v>
@@ -7891,13 +7878,13 @@
         <v>30.59</v>
       </c>
       <c r="J84">
-        <v>38.479999999999997</v>
+        <v>38.48</v>
       </c>
       <c r="K84">
         <v>31.94</v>
       </c>
       <c r="L84">
-        <v>35.450000000000003</v>
+        <v>35.45</v>
       </c>
       <c r="M84">
         <v>32.89</v>
@@ -7945,13 +7932,13 @@
         <v>38.71</v>
       </c>
       <c r="AB84">
-        <v>34.520000000000003</v>
+        <v>34.52</v>
       </c>
       <c r="AC84">
         <v>64.5</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7989,7 +7976,7 @@
         <v>34.54</v>
       </c>
       <c r="M85">
-        <v>32.630000000000003</v>
+        <v>32.63</v>
       </c>
       <c r="N85">
         <v>34.64</v>
@@ -8031,7 +8018,7 @@
         <v>31.84</v>
       </c>
       <c r="AA85">
-        <v>37.770000000000003</v>
+        <v>37.77</v>
       </c>
       <c r="AB85">
         <v>34.32</v>
@@ -8040,7 +8027,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8069,13 +8056,13 @@
         <v>32.83</v>
       </c>
       <c r="J86">
-        <v>38.479999999999997</v>
+        <v>38.48</v>
       </c>
       <c r="K86">
         <v>31.55</v>
       </c>
       <c r="L86">
-        <v>35.380000000000003</v>
+        <v>35.38</v>
       </c>
       <c r="M86">
         <v>32.49</v>
@@ -8123,13 +8110,13 @@
         <v>37.51</v>
       </c>
       <c r="AB86">
-        <v>33.869999999999997</v>
+        <v>33.87</v>
       </c>
       <c r="AC86">
         <v>68.75</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8149,7 +8136,7 @@
         <v>34.11</v>
       </c>
       <c r="G87">
-        <v>32.020000000000003</v>
+        <v>32.02</v>
       </c>
       <c r="H87">
         <v>27.58</v>
@@ -8218,7 +8205,7 @@
         <v>67.75</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8256,10 +8243,10 @@
         <v>36.71</v>
       </c>
       <c r="M88">
-        <v>32.840000000000003</v>
+        <v>32.84</v>
       </c>
       <c r="N88">
-        <v>34.979999999999997</v>
+        <v>34.98</v>
       </c>
       <c r="O88">
         <v>56.73</v>
@@ -8301,13 +8288,13 @@
         <v>39.06</v>
       </c>
       <c r="AB88">
-        <v>35.020000000000003</v>
+        <v>35.02</v>
       </c>
       <c r="AC88">
         <v>55.6</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8327,7 +8314,7 @@
         <v>35.61</v>
       </c>
       <c r="G89">
-        <v>34.700000000000003</v>
+        <v>34.7</v>
       </c>
       <c r="H89">
         <v>28.9</v>
@@ -8342,7 +8329,7 @@
         <v>32.72</v>
       </c>
       <c r="L89">
-        <v>37.770000000000003</v>
+        <v>37.77</v>
       </c>
       <c r="M89">
         <v>33.56</v>
@@ -8384,7 +8371,7 @@
         <v>31.68</v>
       </c>
       <c r="Z89">
-        <v>32.380000000000003</v>
+        <v>32.38</v>
       </c>
       <c r="AA89">
         <v>39.74</v>
@@ -8396,7 +8383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8413,10 +8400,10 @@
         <v>31.99</v>
       </c>
       <c r="F90">
-        <v>35.590000000000003</v>
+        <v>35.59</v>
       </c>
       <c r="G90">
-        <v>35.049999999999997</v>
+        <v>35.05</v>
       </c>
       <c r="H90">
         <v>29.5</v>
@@ -8431,7 +8418,7 @@
         <v>33.11</v>
       </c>
       <c r="L90">
-        <v>36.869999999999997</v>
+        <v>36.87</v>
       </c>
       <c r="M90">
         <v>33.99</v>
@@ -8470,7 +8457,7 @@
         <v>32.5</v>
       </c>
       <c r="Y90">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="Z90">
         <v>32.39</v>
@@ -8479,13 +8466,13 @@
         <v>39.89</v>
       </c>
       <c r="AB90">
-        <v>37.880000000000003</v>
+        <v>37.88</v>
       </c>
       <c r="AC90">
         <v>15.75</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8493,7 +8480,7 @@
         <v>44166</v>
       </c>
       <c r="C91">
-        <v>32.590000000000003</v>
+        <v>32.59</v>
       </c>
       <c r="D91">
         <v>32.47</v>
@@ -8502,7 +8489,7 @@
         <v>32.51</v>
       </c>
       <c r="F91">
-        <v>33.729999999999997</v>
+        <v>33.73</v>
       </c>
       <c r="G91">
         <v>35.11</v>
@@ -8514,10 +8501,10 @@
         <v>37.49</v>
       </c>
       <c r="J91">
-        <v>38.880000000000003</v>
+        <v>38.88</v>
       </c>
       <c r="K91">
-        <v>32.909999999999997</v>
+        <v>32.91</v>
       </c>
       <c r="L91">
         <v>37.04</v>
@@ -8562,7 +8549,7 @@
         <v>31.34</v>
       </c>
       <c r="Z91">
-        <v>32.380000000000003</v>
+        <v>32.38</v>
       </c>
       <c r="AA91">
         <v>39.58</v>
@@ -8574,7 +8561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8582,7 +8569,7 @@
         <v>44197</v>
       </c>
       <c r="C92">
-        <v>32.869999999999997</v>
+        <v>32.87</v>
       </c>
       <c r="D92">
         <v>32.54</v>
@@ -8603,7 +8590,7 @@
         <v>35.64</v>
       </c>
       <c r="J92">
-        <v>38.549999999999997</v>
+        <v>38.55</v>
       </c>
       <c r="K92">
         <v>33.01</v>
@@ -8612,7 +8599,7 @@
         <v>36.94</v>
       </c>
       <c r="M92">
-        <v>33.869999999999997</v>
+        <v>33.87</v>
       </c>
       <c r="N92">
         <v>35.97</v>
@@ -8639,7 +8626,7 @@
         <v>39.32</v>
       </c>
       <c r="V92">
-        <v>32.909999999999997</v>
+        <v>32.91</v>
       </c>
       <c r="W92">
         <v>30.39</v>
@@ -8654,7 +8641,7 @@
         <v>32.17</v>
       </c>
       <c r="AA92">
-        <v>38.840000000000003</v>
+        <v>38.84</v>
       </c>
       <c r="AB92">
         <v>36.68</v>
@@ -8663,7 +8650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8671,10 +8658,10 @@
         <v>44228</v>
       </c>
       <c r="C93">
-        <v>32.869999999999997</v>
+        <v>32.87</v>
       </c>
       <c r="D93">
-        <v>32.659999999999997</v>
+        <v>32.66</v>
       </c>
       <c r="E93">
         <v>33.17</v>
@@ -8683,13 +8670,13 @@
         <v>34.29</v>
       </c>
       <c r="G93">
-        <v>34.659999999999997</v>
+        <v>34.66</v>
       </c>
       <c r="H93">
         <v>29.92</v>
       </c>
       <c r="I93">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="J93">
         <v>38.67</v>
@@ -8698,7 +8685,7 @@
         <v>32.82</v>
       </c>
       <c r="L93">
-        <v>36.479999999999997</v>
+        <v>36.48</v>
       </c>
       <c r="M93">
         <v>33.75</v>
@@ -8734,7 +8721,7 @@
         <v>29.97</v>
       </c>
       <c r="X93">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="Y93">
         <v>31.65</v>
@@ -8743,16 +8730,16 @@
         <v>31.96</v>
       </c>
       <c r="AA93">
-        <v>38.979999999999997</v>
+        <v>38.98</v>
       </c>
       <c r="AB93">
-        <v>36.770000000000003</v>
+        <v>36.77</v>
       </c>
       <c r="AC93">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8769,7 +8756,7 @@
         <v>32.86</v>
       </c>
       <c r="F94">
-        <v>35.909999999999997</v>
+        <v>35.91</v>
       </c>
       <c r="G94">
         <v>35.58</v>
@@ -8814,10 +8801,10 @@
         <v>35.25</v>
       </c>
       <c r="U94">
-        <v>38.159999999999997</v>
+        <v>38.16</v>
       </c>
       <c r="V94">
-        <v>32.840000000000003</v>
+        <v>32.84</v>
       </c>
       <c r="W94">
         <v>30.01</v>
@@ -8838,10 +8825,10 @@
         <v>36.79</v>
       </c>
       <c r="AC94">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8849,7 +8836,7 @@
         <v>44287</v>
       </c>
       <c r="C95">
-        <v>35.270000000000003</v>
+        <v>35.27</v>
       </c>
       <c r="D95">
         <v>32.43</v>
@@ -8873,13 +8860,13 @@
         <v>38.76</v>
       </c>
       <c r="K95">
-        <v>32.619999999999997</v>
+        <v>32.62</v>
       </c>
       <c r="L95">
         <v>36.49</v>
       </c>
       <c r="M95">
-        <v>33.450000000000003</v>
+        <v>33.45</v>
       </c>
       <c r="N95">
         <v>36</v>
@@ -8903,7 +8890,7 @@
         <v>36</v>
       </c>
       <c r="U95">
-        <v>38.119999999999997</v>
+        <v>38.12</v>
       </c>
       <c r="V95">
         <v>33.1</v>
@@ -8924,13 +8911,13 @@
         <v>38.64</v>
       </c>
       <c r="AB95">
-        <v>38.130000000000003</v>
+        <v>38.13</v>
       </c>
       <c r="AC95">
         <v>37.5</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8962,7 +8949,7 @@
         <v>38.72</v>
       </c>
       <c r="K96">
-        <v>32.520000000000003</v>
+        <v>32.52</v>
       </c>
       <c r="L96">
         <v>36.28</v>
@@ -8992,10 +8979,10 @@
         <v>37.5</v>
       </c>
       <c r="U96">
-        <v>38.590000000000003</v>
+        <v>38.59</v>
       </c>
       <c r="V96">
-        <v>33.340000000000003</v>
+        <v>33.34</v>
       </c>
       <c r="W96">
         <v>29.95</v>
@@ -9010,7 +8997,7 @@
         <v>31.99</v>
       </c>
       <c r="AA96">
-        <v>38.020000000000003</v>
+        <v>38.02</v>
       </c>
       <c r="AB96">
         <v>39.33</v>
@@ -9019,7 +9006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9036,10 +9023,10 @@
         <v>34.03</v>
       </c>
       <c r="F97">
-        <v>37.520000000000003</v>
+        <v>37.52</v>
       </c>
       <c r="G97">
-        <v>35.979999999999997</v>
+        <v>35.98</v>
       </c>
       <c r="H97">
         <v>31.04</v>
@@ -9051,7 +9038,7 @@
         <v>38.74</v>
       </c>
       <c r="K97">
-        <v>32.229999999999997</v>
+        <v>32.23</v>
       </c>
       <c r="L97">
         <v>36.64</v>
@@ -9099,16 +9086,16 @@
         <v>31.82</v>
       </c>
       <c r="AA97">
-        <v>37.270000000000003</v>
+        <v>37.27</v>
       </c>
       <c r="AB97">
-        <v>39.229999999999997</v>
+        <v>39.23</v>
       </c>
       <c r="AC97">
-        <v>71.400000000000006</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+        <v>71.40000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9116,7 +9103,7 @@
         <v>44378</v>
       </c>
       <c r="C98">
-        <v>35.130000000000003</v>
+        <v>35.13</v>
       </c>
       <c r="D98">
         <v>32.51</v>
@@ -9128,13 +9115,13 @@
         <v>37.51</v>
       </c>
       <c r="G98">
-        <v>36.549999999999997</v>
+        <v>36.55</v>
       </c>
       <c r="H98">
         <v>30.82</v>
       </c>
       <c r="I98">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="J98">
         <v>37.83</v>
@@ -9188,7 +9175,7 @@
         <v>31.62</v>
       </c>
       <c r="AA98">
-        <v>37.020000000000003</v>
+        <v>37.02</v>
       </c>
       <c r="AB98">
         <v>37.76</v>
@@ -9197,7 +9184,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9205,7 +9192,7 @@
         <v>44409</v>
       </c>
       <c r="C99">
-        <v>35.729999999999997</v>
+        <v>35.73</v>
       </c>
       <c r="D99">
         <v>32.65</v>
@@ -9217,13 +9204,13 @@
         <v>36.44</v>
       </c>
       <c r="G99">
-        <v>36.549999999999997</v>
+        <v>36.55</v>
       </c>
       <c r="H99">
         <v>31</v>
       </c>
       <c r="I99">
-        <v>39.229999999999997</v>
+        <v>39.23</v>
       </c>
       <c r="J99">
         <v>38.92</v>
@@ -9232,10 +9219,10 @@
         <v>32.82</v>
       </c>
       <c r="L99">
-        <v>38.119999999999997</v>
+        <v>38.12</v>
       </c>
       <c r="M99">
-        <v>32.729999999999997</v>
+        <v>32.73</v>
       </c>
       <c r="N99">
         <v>37.25</v>
@@ -9259,7 +9246,7 @@
         <v>37.75</v>
       </c>
       <c r="U99">
-        <v>39.159999999999997</v>
+        <v>39.16</v>
       </c>
       <c r="V99">
         <v>33.39</v>
@@ -9286,7 +9273,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9318,7 +9305,7 @@
         <v>39.56</v>
       </c>
       <c r="K100">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="L100">
         <v>38.71</v>
@@ -9351,13 +9338,13 @@
         <v>39.85</v>
       </c>
       <c r="V100">
-        <v>34.520000000000003</v>
+        <v>34.52</v>
       </c>
       <c r="W100">
         <v>30.07</v>
       </c>
       <c r="X100">
-        <v>32.299999999999997</v>
+        <v>32.3</v>
       </c>
       <c r="Y100">
         <v>33</v>
@@ -9375,7 +9362,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9392,7 +9379,7 @@
         <v>35.42</v>
       </c>
       <c r="F101">
-        <v>39.520000000000003</v>
+        <v>39.52</v>
       </c>
       <c r="G101">
         <v>39.28</v>
@@ -9407,10 +9394,10 @@
         <v>40.75</v>
       </c>
       <c r="K101">
-        <v>34.270000000000003</v>
+        <v>34.27</v>
       </c>
       <c r="L101">
-        <v>39.409999999999997</v>
+        <v>39.41</v>
       </c>
       <c r="M101">
         <v>35.07</v>
@@ -9464,7 +9451,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9505,7 +9492,7 @@
         <v>35.04</v>
       </c>
       <c r="N102">
-        <v>38.979999999999997</v>
+        <v>38.98</v>
       </c>
       <c r="O102">
         <v>58.47</v>
@@ -9517,7 +9504,7 @@
         <v>40.1</v>
       </c>
       <c r="R102">
-        <v>32.979999999999997</v>
+        <v>32.98</v>
       </c>
       <c r="S102">
         <v>62.5</v>
@@ -9553,7 +9540,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9564,7 +9551,7 @@
         <v>45.05</v>
       </c>
       <c r="D103">
-        <v>36.770000000000003</v>
+        <v>36.77</v>
       </c>
       <c r="E103">
         <v>38</v>
@@ -9585,13 +9572,13 @@
         <v>42.99</v>
       </c>
       <c r="K103">
-        <v>35.340000000000003</v>
+        <v>35.34</v>
       </c>
       <c r="L103">
         <v>39.93</v>
       </c>
       <c r="M103">
-        <v>35.229999999999997</v>
+        <v>35.23</v>
       </c>
       <c r="N103">
         <v>39.5</v>
@@ -9642,7 +9629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9674,10 +9661,10 @@
         <v>44.22</v>
       </c>
       <c r="K104">
-        <v>36.020000000000003</v>
+        <v>36.02</v>
       </c>
       <c r="L104">
-        <v>40.729999999999997</v>
+        <v>40.73</v>
       </c>
       <c r="M104">
         <v>36.14</v>
@@ -9707,13 +9694,13 @@
         <v>42.4</v>
       </c>
       <c r="V104">
-        <v>40.090000000000003</v>
+        <v>40.09</v>
       </c>
       <c r="W104">
         <v>34.19</v>
       </c>
       <c r="X104">
-        <v>40.409999999999997</v>
+        <v>40.41</v>
       </c>
       <c r="Y104">
         <v>35.93</v>
@@ -9731,7 +9718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9745,7 +9732,7 @@
         <v>37.99</v>
       </c>
       <c r="E105">
-        <v>40.909999999999997</v>
+        <v>40.91</v>
       </c>
       <c r="F105">
         <v>43.68</v>
@@ -9754,7 +9741,7 @@
         <v>44.25</v>
       </c>
       <c r="H105">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="I105">
         <v>47.59</v>
@@ -9763,7 +9750,7 @@
         <v>45.46</v>
       </c>
       <c r="K105">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="L105">
         <v>41.18</v>
@@ -9796,16 +9783,16 @@
         <v>43.2</v>
       </c>
       <c r="V105">
-        <v>40.619999999999997</v>
+        <v>40.62</v>
       </c>
       <c r="W105">
         <v>34.15</v>
       </c>
       <c r="X105">
-        <v>39.630000000000003</v>
+        <v>39.63</v>
       </c>
       <c r="Y105">
-        <v>36.869999999999997</v>
+        <v>36.87</v>
       </c>
       <c r="Z105">
         <v>38.1</v>
@@ -9820,7 +9807,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9834,7 +9821,7 @@
         <v>38.57</v>
       </c>
       <c r="E106">
-        <v>40.630000000000003</v>
+        <v>40.63</v>
       </c>
       <c r="F106">
         <v>46.23</v>
@@ -9858,7 +9845,7 @@
         <v>40.94</v>
       </c>
       <c r="M106">
-        <v>37.659999999999997</v>
+        <v>37.66</v>
       </c>
       <c r="N106">
         <v>40.56</v>
@@ -9873,7 +9860,7 @@
         <v>47.62</v>
       </c>
       <c r="R106">
-        <v>37.020000000000003</v>
+        <v>37.02</v>
       </c>
       <c r="S106">
         <v>63.54</v>
@@ -9888,16 +9875,16 @@
         <v>41.44</v>
       </c>
       <c r="W106">
-        <v>34.159999999999997</v>
+        <v>34.16</v>
       </c>
       <c r="X106">
         <v>40.74</v>
       </c>
       <c r="Y106">
-        <v>38.159999999999997</v>
+        <v>38.16</v>
       </c>
       <c r="Z106">
-        <v>38.840000000000003</v>
+        <v>38.84</v>
       </c>
       <c r="AA106">
         <v>43.93</v>
@@ -9909,7 +9896,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9983,7 +9970,7 @@
         <v>42.41</v>
       </c>
       <c r="Y107">
-        <v>40.630000000000003</v>
+        <v>40.63</v>
       </c>
       <c r="Z107">
         <v>39.64</v>
@@ -9998,7 +9985,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10075,7 +10062,7 @@
         <v>42.14</v>
       </c>
       <c r="Z108">
-        <v>40.380000000000003</v>
+        <v>40.38</v>
       </c>
       <c r="AA108">
         <v>46.99</v>
@@ -10087,7 +10074,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10176,7 +10163,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10265,7 +10252,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10354,7 +10341,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10380,7 +10367,7 @@
         <v>50.05</v>
       </c>
       <c r="I112">
-        <v>64.290000000000006</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="J112">
         <v>58.12</v>
@@ -10443,7 +10430,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10532,7 +10519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10558,7 +10545,7 @@
         <v>53.21</v>
       </c>
       <c r="I114">
-        <v>69.239999999999995</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="J114">
         <v>59.61</v>
@@ -10621,7 +10608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10647,7 +10634,7 @@
         <v>54.42</v>
       </c>
       <c r="I115">
-        <v>68.180000000000007</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="J115">
         <v>57.3</v>
@@ -10710,7 +10697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10799,7 +10786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10849,7 +10836,7 @@
         <v>34.01</v>
       </c>
       <c r="Q117">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="R117">
         <v>56.32</v>
@@ -10888,7 +10875,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -10935,7 +10922,7 @@
         <v>64.69</v>
       </c>
       <c r="P118">
-        <v>34.369999999999997</v>
+        <v>34.37</v>
       </c>
       <c r="Q118">
         <v>38.17</v>
@@ -10977,7 +10964,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -11021,7 +11008,7 @@
         <v>53.73</v>
       </c>
       <c r="O119">
-        <v>64.260000000000005</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="P119">
         <v>34.72</v>
@@ -11066,7 +11053,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -11155,7 +11142,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -11238,13 +11225,13 @@
         <v>51.56</v>
       </c>
       <c r="AB121">
-        <v>36.630000000000003</v>
+        <v>36.63</v>
       </c>
       <c r="AC121">
         <v>58.6</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -11252,7 +11239,7 @@
         <v>45108</v>
       </c>
       <c r="C122">
-        <v>38.700000000000003</v>
+        <v>38.7</v>
       </c>
       <c r="D122">
         <v>41.42</v>
@@ -11333,7 +11320,7 @@
         <v>59.25</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -11356,7 +11343,7 @@
         <v>40.98</v>
       </c>
       <c r="H123">
-        <v>39.729999999999997</v>
+        <v>39.73</v>
       </c>
       <c r="I123">
         <v>38.32</v>
@@ -11383,7 +11370,7 @@
         <v>36</v>
       </c>
       <c r="Q123">
-        <v>33.869999999999997</v>
+        <v>33.87</v>
       </c>
       <c r="R123">
         <v>39.32</v>
@@ -11410,19 +11397,19 @@
         <v>42.73</v>
       </c>
       <c r="Z123">
-        <v>40.840000000000003</v>
+        <v>40.84</v>
       </c>
       <c r="AA123">
         <v>51.31</v>
       </c>
       <c r="AB123">
-        <v>36.409999999999997</v>
+        <v>36.41</v>
       </c>
       <c r="AC123">
         <v>60.5</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -11430,7 +11417,7 @@
         <v>45170</v>
       </c>
       <c r="C124">
-        <v>38.659999999999997</v>
+        <v>38.66</v>
       </c>
       <c r="D124">
         <v>41.76</v>
@@ -11472,10 +11459,10 @@
         <v>34.17</v>
       </c>
       <c r="Q124">
-        <v>35.159999999999997</v>
+        <v>35.16</v>
       </c>
       <c r="R124">
-        <v>39.799999999999997</v>
+        <v>39.8</v>
       </c>
       <c r="S124">
         <v>57.25</v>
@@ -11499,7 +11486,7 @@
         <v>42.76</v>
       </c>
       <c r="Z124">
-        <v>40.869999999999997</v>
+        <v>40.87</v>
       </c>
       <c r="AA124">
         <v>49.5</v>
@@ -11511,7 +11498,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -11600,7 +11587,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -11683,13 +11670,13 @@
         <v>51.53</v>
       </c>
       <c r="AB126">
-        <v>39.590000000000003</v>
+        <v>39.59</v>
       </c>
       <c r="AC126">
         <v>15.5</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -11733,7 +11720,7 @@
         <v>49.78</v>
       </c>
       <c r="O127">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="P127">
         <v>38.35</v>
@@ -11778,7 +11765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -11867,7 +11854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11890,7 +11877,7 @@
         <v>45.75</v>
       </c>
       <c r="H129">
-        <v>42.978499999999997</v>
+        <v>42.9785</v>
       </c>
       <c r="I129">
         <v>44.67</v>
@@ -11914,7 +11901,7 @@
         <v>65.02</v>
       </c>
       <c r="P129">
-        <v>39.369999999999997</v>
+        <v>39.37</v>
       </c>
       <c r="Q129">
         <v>42.2</v>
@@ -11956,7 +11943,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11964,7 +11951,7 @@
         <v>45352</v>
       </c>
       <c r="C130">
-        <v>46.516779999999997</v>
+        <v>46.51678</v>
       </c>
       <c r="D130">
         <v>44.33</v>
@@ -11979,10 +11966,10 @@
         <v>45.75</v>
       </c>
       <c r="H130">
-        <v>42.892543000000003</v>
+        <v>42.892543</v>
       </c>
       <c r="I130">
-        <v>44.580660000000002</v>
+        <v>44.58066</v>
       </c>
       <c r="J130">
         <v>52.65</v>
@@ -11997,13 +11984,13 @@
         <v>48.44</v>
       </c>
       <c r="N130">
-        <v>48.482840000000003</v>
+        <v>48.48284</v>
       </c>
       <c r="O130">
         <v>65.02</v>
       </c>
       <c r="P130">
-        <v>39.450000000000003</v>
+        <v>39.45</v>
       </c>
       <c r="Q130">
         <v>42.92</v>
@@ -12046,6 +12033,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>